--- a/artfynd/A 27954-2025 artfynd.xlsx
+++ b/artfynd/A 27954-2025 artfynd.xlsx
@@ -3689,7 +3689,7 @@
         <v>130581035</v>
       </c>
       <c r="B26" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>130581098</v>
       </c>
       <c r="B27" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>130581028</v>
       </c>
       <c r="B28" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
